--- a/documents/CSS整理用.xlsx
+++ b/documents/CSS整理用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0738E1-12D1-4E22-A981-E3F0D13DAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF7FB5A-C891-4D1E-A40A-A70BE3CAB505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="585" windowWidth="18645" windowHeight="10065" xr2:uid="{D1647486-4CB7-4DE3-A19C-4B2556F9B184}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1647486-4CB7-4DE3-A19C-4B2556F9B184}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>login.jsp</t>
     <phoneticPr fontId="1"/>
@@ -130,9 +130,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;input&gt;
+・一つ目の項目はautofocus（最初から選択される）
+・必須項目にrequiredを付ける</t>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>ヒッスコウモク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomnew.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomedit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームの編集画面</t>
+    <rPh sb="4" eb="8">
+      <t>ヘンシュウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームの新規作成画面</t>
+    <rPh sb="4" eb="8">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomsearch.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームの検索画面</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>second</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
-</t>
+Second</t>
     </r>
     <r>
       <rPr>
@@ -144,52 +222,81 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>first.css</t>
+      <t>.css</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HTML</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;input&gt;
-・一つ目の項目はautofocus（最初から選択される）
-・必須項目にrequiredを付ける</t>
-    <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="39" eb="43">
-      <t>ヒッスコウモク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
+    <r>
+      <t xml:space="preserve">
+First</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.css</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・タイトルはH2サイズ
+・bodyクラスを「second」で統一：配置などに使用
+・divクラス「first」：背景色のピンクの部分を作るため
+・input[type="text"]で投稿フォームの編集
+　アカウント新規作成とログインは同じサイズでも良さそう
+　プロフィールだけサイズが変わる（class付ける）
+</t>
+    <rPh sb="31" eb="33">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="111" eb="115">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
       <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">・背景色、文字の色、フォントはcommon.cssからコピペ
 ・タイトルはH1サイズ
-・bodyクラスを「first」で統一：中央寄せなどに使用
 ・divクラス「first」：背景色のピンクの部分を作るため
 ・input[type="text"]で投稿フォームの編集
 　アカウント新規作成とログインは同じサイズでも良さそう
@@ -205,49 +312,40 @@
     <rPh sb="8" eb="9">
       <t>イロ</t>
     </rPh>
-    <rPh sb="63" eb="65">
-      <t>トウイツ</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>チュウオウヨ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="92" eb="95">
+    <rPh sb="61" eb="64">
       <t>ハイケイショク</t>
     </rPh>
-    <rPh sb="100" eb="102">
+    <rPh sb="69" eb="71">
       <t>ブブン</t>
     </rPh>
-    <rPh sb="103" eb="104">
+    <rPh sb="72" eb="73">
       <t>ツク</t>
     </rPh>
-    <rPh sb="129" eb="131">
+    <rPh sb="98" eb="100">
       <t>トウコウ</t>
     </rPh>
-    <rPh sb="136" eb="138">
+    <rPh sb="105" eb="107">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="145" eb="149">
+    <rPh sb="114" eb="118">
       <t>シンキサクセイ</t>
     </rPh>
-    <rPh sb="155" eb="156">
+    <rPh sb="124" eb="125">
       <t>オナ</t>
     </rPh>
-    <rPh sb="162" eb="163">
+    <rPh sb="131" eb="132">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="180" eb="181">
+    <rPh sb="149" eb="150">
       <t>カ</t>
     </rPh>
-    <rPh sb="189" eb="190">
+    <rPh sb="158" eb="159">
       <t>ツ</t>
     </rPh>
-    <rPh sb="220" eb="222">
+    <rPh sb="189" eb="191">
       <t>ヘンシュウ</t>
     </rPh>
-    <rPh sb="223" eb="224">
+    <rPh sb="192" eb="193">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -283,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +506,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,6 +720,138 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4631760" y="2584928"/>
+          <a:ext cx="1856906" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234863</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2091769</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1109240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0843FDB3-C5F5-439C-A890-E24BCA0D4D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6171678" y="6745788"/>
+          <a:ext cx="1856906" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247911</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2104817</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1083144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1BB121-73C1-4964-9BDE-DCE5E16412AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184726" y="5571473"/>
+          <a:ext cx="1856906" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247911</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2104817</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1096192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0773A752-7464-43C0-A8B2-3536139A0DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184726" y="4436302"/>
           <a:ext cx="1856906" cy="1044000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -922,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F99E0-C7A0-4DB2-9E49-38BA62419ADF}">
-  <dimension ref="B2:I5"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -941,7 +1180,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -959,7 +1198,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
@@ -970,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -983,10 +1222,10 @@
         <v>9</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
@@ -1017,8 +1256,89 @@
       <c r="H5" s="12"/>
       <c r="I5" s="9"/>
     </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="13"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="B3:B5"/>

--- a/documents/CSS整理用.xlsx
+++ b/documents/CSS整理用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF7FB5A-C891-4D1E-A40A-A70BE3CAB505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E0F3E5-CA83-4879-8DFE-B97889AA67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1647486-4CB7-4DE3-A19C-4B2556F9B184}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>login.jsp</t>
     <phoneticPr fontId="1"/>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>roomsearch.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルームの検索画面</t>
     <rPh sb="4" eb="8">
       <t>ケンサクガメン</t>
@@ -205,25 +201,6 @@
   </si>
   <si>
     <t>second</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Second</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.css</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -350,12 +327,188 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Second</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.css
+common.css</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;input&gt;
+・一つ目の項目はautofocus（最初から選択される）
+・必須項目にrequiredを付ける
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・leftmenu.jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（common.css)</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>ヒッスコウモク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・follow.jsp
+(common.css)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>third</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+third</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.css
+common.css</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャット画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roomsearch.jsp
+（バーがきもい）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mypage.jsp
+（フォームを整える）
+（フォローリストにバー付ける）</t>
+    <rPh sb="17" eb="18">
+      <t>トトノ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール検索</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lefftmeu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follow.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +533,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +559,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,56 +636,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -861,6 +1084,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>221815</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2078721</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1109239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA0977B-0903-4832-AAE0-D9099A8ABA40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6158630" y="7894006"/>
+          <a:ext cx="1856906" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234863</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2091769</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1109240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A4630B-6CE0-4DB8-B516-86FDDB1163BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6171678" y="9511952"/>
+          <a:ext cx="1856906" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234863</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2091769</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1135336</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81FF988-967F-4425-9146-5376E2841D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6171678" y="10686268"/>
+          <a:ext cx="1856906" cy="1044000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1161,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F99E0-C7A0-4DB2-9E49-38BA62419ADF}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1205,150 +1560,304 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="2"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="13"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="8"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="9"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="4"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="20"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="6"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
+  <mergeCells count="17">
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{73BD0E4D-7DC3-42E4-94D1-B2177E768F18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/documents/CSS整理用.xlsx
+++ b/documents/CSS整理用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E0F3E5-CA83-4879-8DFE-B97889AA67DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2954EE-7A53-4BC4-A7BA-EDD863122DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1647486-4CB7-4DE3-A19C-4B2556F9B184}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>login.jsp</t>
     <phoneticPr fontId="1"/>
@@ -434,10 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chat.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チャット画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -450,27 +446,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>roomsearch.jsp
-（バーがきもい）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mypage.jsp
-（フォームを整える）
-（フォローリストにバー付ける）</t>
-    <rPh sb="17" eb="18">
-      <t>トトノ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>home.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロフィール検索</t>
     <rPh sb="6" eb="8">
       <t>ケンサク</t>
@@ -501,6 +476,44 @@
   </si>
   <si>
     <t>follow.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat.jsp（リアクション、
+バーの装飾、文字の色）</t>
+    <rPh sb="20" eb="22">
+      <t>ソウショク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home.jsp（画像、ここに飛ぶ）</t>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roomsearch.jsp
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mypage.jsp
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>profilesearch.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -543,7 +556,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,21 +676,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -681,56 +751,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1518,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F99E0-C7A0-4DB2-9E49-38BA62419ADF}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1560,56 +1582,56 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="14"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
@@ -1638,70 +1660,70 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="21" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="22" t="s">
-        <v>35</v>
+      <c r="B10" s="18"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22" t="s">
-        <v>36</v>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="29" t="s">
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
@@ -1730,38 +1752,38 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="20"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="23" t="s">
-        <v>2</v>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
@@ -1790,17 +1812,17 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>39</v>
+      <c r="E18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1808,36 +1830,31 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="6"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="6"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="B8:B11"/>
@@ -1850,6 +1867,11 @@
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="I8:I10"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/documents/CSS整理用.xlsx
+++ b/documents/CSS整理用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2954EE-7A53-4BC4-A7BA-EDD863122DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234E2A0B-D6D7-4893-9891-C48D44D574B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D1647486-4CB7-4DE3-A19C-4B2556F9B184}"/>
   </bookViews>
@@ -663,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,12 +685,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +747,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1540,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88F99E0-C7A0-4DB2-9E49-38BA62419ADF}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1582,10 +1579,10 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1595,19 +1592,19 @@
         <v>3</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="23"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1615,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="23"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1629,9 +1626,9 @@
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="3" t="s">
@@ -1660,10 +1657,10 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1673,17 +1670,17 @@
         <v>20</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="24" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1691,28 +1688,28 @@
         <v>19</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="29" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="18"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="29" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="27" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1752,38 +1749,38 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="27" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="28" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
@@ -1812,16 +1809,16 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="3"/>
@@ -1830,8 +1827,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="11"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1842,8 +1839,8 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
